--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/PK/GamePlayPKCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/PK/GamePlayPKCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\PK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F2DFCC-498B-4A28-A958-43999E2F9991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93490B07-12B6-4BB7-B716-269CB706EBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,15 +136,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayPK2</t>
+    <t>PKCfg1</t>
+  </si>
+  <si>
+    <t>PKCfg2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayPK3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayPK1</t>
+    <t>PKCfg3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +552,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,7 +696,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
@@ -705,7 +704,7 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
@@ -713,7 +712,7 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/PK/GamePlayPKCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/GamePlayConfig/PK/GamePlayPKCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\GamePlayConfig\PK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93490B07-12B6-4BB7-B716-269CB706EBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F8651-16E8-4889-8B4F-002B6571A811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -144,6 +144,31 @@
   </si>
   <si>
     <t>PKCfg3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=ActionCfg_GlobalBuffAddCategory</t>
+  </si>
+  <si>
+    <t>效果列表</t>
+  </si>
+  <si>
+    <t>globalBuffAddList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=ActionCfg_GlobalBuffAddImmediatelyCategory</t>
+  </si>
+  <si>
+    <t>AddPlayer时效果列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addPlayerGlobalBuffAddList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalBuffAddImmediately_TestSynergy1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +577,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,6 +586,8 @@
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -576,8 +603,12 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -598,8 +629,8 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -626,8 +657,12 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -650,8 +685,8 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -678,8 +713,12 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -700,6 +739,10 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -708,6 +751,8 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -716,6 +761,8 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
